--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/af_ZA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/af_ZA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5225">
   <si>
     <t>translation_group</t>
   </si>
@@ -15646,12 +15646,6 @@
   </si>
   <si>
     <t xml:space="preserve"> kennisgewings</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16038,17 +16032,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54695,18 +54689,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5209</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5210</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54716,10 +54702,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
       <c r="D2763" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54730,10 +54716,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="D2764" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54744,10 +54730,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
       <c r="D2765" t="s">
-        <v>5216</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54758,10 +54744,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
       <c r="D2766" t="s">
-        <v>5218</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54772,10 +54758,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5219</v>
+        <v>5217</v>
       </c>
       <c r="D2767" t="s">
-        <v>5220</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54786,10 +54772,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5221</v>
+        <v>5219</v>
       </c>
       <c r="D2768" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54800,10 +54786,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5223</v>
+        <v>5221</v>
       </c>
       <c r="D2769" t="s">
-        <v>5224</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54842,11 +54828,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5225</v>
+        <v>5223</v>
       </c>
       <c r="D2772" t="s">
-        <v>5226</v>
-      </c>
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/af_ZA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/af_ZA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5902">
   <si>
     <t>translation_group</t>
   </si>
@@ -10163,7 +10163,7 @@
     <t>Seo-instellings</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>Vul die velde in vir maksimum resultate wanneer u u webwerf in soekenjins vind.</t>
@@ -17131,6 +17131,610 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Welkom by Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Gebruik Microweber om u webwerf, aanlynwinkel of blog op te stel.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Skep en wysig inhoud, verkoop aanlyn, bestuur bestellings en kliënte.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Verlate wa's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>U gebruik hierdie sjabloon.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>Die verandering sal slegs die huidige bladsy beïnvloed.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Laat verskeie templates toe</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>As u veelvuldige sjablone toelaat, kan u verskillende sjablone gebruik wanneer u 'n nuwe bladsy skep.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Stelsel e-pos webwerf instellings</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Lewer boodskappe wat verband hou met nuwe registrasie, wagwoordterugstellings en ander stelselfunksies.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Van e-posadres</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Bv. U webwerfnaam</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Algemene instellings vir e-posverskaffers</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Stel u e-posverskaffer op.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Die algemene e-posverskaffer sal alle boodskappe oor die webwerf lewer. Insluitend stelselboodskappe en kontakvormboodskappe.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Webwerf-logo</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Kies 'n logo vir u webwerf.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Laai logo op</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Webwerf Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Verander standaardtaal ..</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Vee kas uit.</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Installeer Multiluuage Module</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Registreer gebruikers kan outomaties 'n outomatiese e-pos van u ontvang. Sien die instellings en plaas u boodskappe.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Stuur e-pos oor nuwe gebruikersregistrasie aan admin-gebruikers</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Wil u hê dat administrateurs 'n e-pos moet ontvang wanneer 'n nuwe gebruiker geregistreer is?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber is 'n gratis open source-sleep-en-webwerf-bouer en CMS. Dit is onder MIT-lisensie en ons gebruik die Laravel PHP-raamwerk</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>'N Skuifbalk</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Versending na adres</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Aflaai vanaf adres</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Globale instellings</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>E-pos integrasies</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>U het nie die stelsel-e-pos en smtp opgestel nie.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Stel u stelselinstellings hier op.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Globale instellings vir kontakvorms</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>E-posversendingsopsies</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Globale sender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Gebruik pasgemaakte stuurinstellings</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Gebruik aangepaste afsenderinstellings vir die globale kontakvorms.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Ons sal standaard e-posinstellings van die webwerfstelsel gebruik.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>U kan die stelsel-e-posinstellings hier verander.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Globale ontvangers</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Stuur kontakvormsdata na globale ontvangers wanneer dit ingedien word</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Na e-pos adresse</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>E-pos adres van die ontvangers geskei met koma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Kontak u gasheerverskaffer om PHP SOAP-uitbreiding in te skakel.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elemente</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 maande gelede</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Verwyder logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Verwyder favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Pasgemaak</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Produkte V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Tydlyn</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Wit etiket WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Inhoud weergawes</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Standaard uitlegte en elemente</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Pylelys</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Gelyste lys</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Agtergrondteks</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titel met teks</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Ikoon met teks</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Twee tekskolomme</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Twee tekskolomme met ikoon en titel</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Beeld met titel en teks</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Teks met beeld en titel</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Teks met beeld</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Aktiveer opmerkings</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Captcha-instellings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stel u captcha-voorkeure op vanaf </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Huidige instellings vir kontakvorms</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Kontakvorm se naam</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Wat is die naam van hierdie kontakvorm?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Ontvangers</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Stuur kontakvormdata na persoonlike ontvangers wanneer dit ingedien word</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Gebruik pasgemaakte ontvangersinstellings vir die huidige kontakvorm.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Ons sal standaard kontakvorms gebruik vir globale instellings.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>U kan die globale kontakinstellings hier verander.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Beantwoord outomaties 'n boodskap aan die gebruiker</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Aktiveer outomatiese reaksie-boodskap aan die gebruiker</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Laat gebruikers toe om 'Dankie-e-posse na intekening' te ontvang.</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Onderwerp wat outomaties reageer</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Outomatiese reaksie boodskap</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>E-pos reageer outomaties aan die gebruiker terug</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Outomatiese reaksie op gepaste sender</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Gebruik aangepaste instellings vir die sender vir die huidige kontakvorm.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Reageer outomaties vanaf e-posadres</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Reageer outomaties vanaf naam</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Antwoord op e-pos outomaties</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Wanneer die gebruiker die outomatiese reaksie-boodskap ontvang, kan hy terug reageer op die e-pos.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Beantwoord e-pos aanhangsels outomaties</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>As u og-beelde wil heg, moet u dit oplaai na die galery vanaf 'Voeg media' by</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Jy het nog geen plasings nie</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Skep nou u eerste pos.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Skep 'n boodskap</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Hoe om produkbeskrywings te skryf wat verkoop
+                                                    Een van die beste dinge wat u kan doen om u winkel suksesvol te maak, is om tyd te spandeer in die skryf van uitstekende produkbeskrywings. U wil gedetailleerde, maar bondige inligting verskaf wat potensiële klante sal lok om te koop.
+                                                    Dink soos 'n verbruiker
+                                                    Dink aan wat u as verbruiker wil weet, en sluit dan die funksies in u beskrywing in. Vir klere: materiaal en pas. Vir kos: bestanddele en hoe dit voorberei is. Koeëls is u vriende wanneer u
+                                                   -funksies noem - probeer
+                                                            om elkeen tot 5-8 woorde te beperk.</t>
   </si>
 </sst>
 </file>
@@ -17469,7 +18073,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67777,6 +68381,1757 @@
         <v>3625</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5707</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5709</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5806</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5807</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2891</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5823</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5824</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5826</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4941</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5863</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5865</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5866</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5867</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5868</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5869</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5870</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5871</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5888</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5892</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5894</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5899</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/af_ZA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/af_ZA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6197">
   <si>
     <t>translation_group</t>
   </si>
@@ -17735,6 +17735,891 @@
                                                     Dink aan wat u as verbruiker wil weet, en sluit dan die funksies in u beskrywing in. Vir klere: materiaal en pas. Vir kos: bestanddele en hoe dit voorberei is. Koeëls is u vriende wanneer u
                                                    -funksies noem - probeer
                                                             om elkeen tot 5-8 woorde te beperk.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Admin taal</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Beperk</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Kode-redakteur</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>titels</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titels 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titels 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titels 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titels 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titels 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titels 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titels 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titels 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>teksblok</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Teksblok 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Teksblok 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Teksblok 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Teksblok 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Teksblok 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Teksblok 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Teksblok 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Teksblok 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Teksblok 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Teksblok 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Teksblok 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Teksblok 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Teksblok 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Teksblok 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Teksblok 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>kenmerke</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Kenmerke 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Kenmerke 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Kenmerke 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Kenmerke 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>roosters</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>spyskaart</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Spyskaart - vel-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Spyskaart - vel-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Spyskaart - vel-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Spyskaart - vel-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Spyskaart - vel-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>voetskrif</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Voettekste 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Voettekste 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Voettekste 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Voettekste 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>ander</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>pryse</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Pryse 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Verstek uitlegte</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Geen inhoud hier nie</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Gepasmaakte velde word gestoor</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Bestaande velde</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Kies uit jou bestaande velde hieronder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Voeg nuwe velde by</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Voeg 'n nuwe pasgemaakte veld vanaf die lys hieronder by</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Jou velde</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lys van jou bygevoegde pasgemaakte velde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herhaal vertikaal </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Font familie</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Oorleg</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Mengmodus</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Houer</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Houer tipe</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animasies</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Herlaai style</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Skakels na</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Voorskou pakket</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Gebruik</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Huidige</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Herrangskik</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Stelsel</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Blaaier herlei</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrasie</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Selfstandige Updater</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>Jy benodig lisensiesleutel om hierdie pakket te installeer</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Hierdie pakket is premium en jy moet 'n lisensiesleutel hê om dit te installeer</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Jy benodig lisensiesleutel</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Lisensie geaktiveer</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Herlaai bladsy</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Lisensie nie geaktiveer nie</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Stelselopdaterings</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Kyk vir stelselopdaterings</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Terug na lys</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>Die kategorie moet 'n naam hê</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>Is kategorie versteek?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>As jy dit op JA stel, sal hierdie kategorie van die webwerf versteek word</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Noem</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Jou mandjie is leeg.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Resultate gevind</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>As jy die persentasie uit die kiesveld kies, sal dit outomaties bereken word vanaf die prys en aanbodprys van die produk.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Gaan voort na Register</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>resultate)</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Bladsytitel - Regs Broodkrummel</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Bladsytitel - Linkerbroodkrummel</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Gebruiksvoorwaardes</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Aflewering en terugsendings</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>Gestuur inligting</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Ongeveer 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Ongeveer 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Ongeveer 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Tuis 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Tuis 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>Jy moet op die pas sjabloonknoppie klik om jou sjabloon te verander</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Soek volgens kriteria</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Dateer vanaf</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Stel die bestellings vanaf datum</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Datum tot</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Stel die bestellings tot op datum</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Bestelbedrag vanaf</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Wys die bestelling met minimum bedrag</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Bestelbedrag te</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Wys die bestelling met maksimum bedrag</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Soek volgens produkte...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Soek volgens produkte</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Betalingstatus</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Gratis soektog per telefoon, naam, e-pos, ens...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Dien hierdie kriteria in</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Stel filter terug</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Voer alles uit</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Kies sortering</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Besteldatum</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Nuut &gt; Oud]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Oud &gt; Nuut]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Hoog &gt; Laag]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Laag &gt; Hoog]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>Bestelling voltooi</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>vertalings van die meertalige module is in jou databasis gevind.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Waarskuwing! Die verandering van die verstektaal kan vertalings op jou werf breek.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Wil jy seker voortgaan?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Waarskuwing! Die veranderende verstektaal sal dalk jou werf breek.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Verskepingsinligting</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>Versending tipe</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>die bestelling is nog nie voltooi nie</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>die bestelling is voltooi</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Geskep by</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Opgedateer by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinnige aansig </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Vervang taalwaardes</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Vertalings word ingevoer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertalings nie in databasis gevind nie. Wil jy vertalings invoer? </t>
   </si>
 </sst>
 </file>
@@ -17758,10 +18643,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17772,7 +18654,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18073,7 +18955,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70135,8 +71017,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6038</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6079</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5899</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6088</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6089</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6090</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6089</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6092</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6113</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6114</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6115</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6116</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6117</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6118</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6119</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6122</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6123</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6124</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6168</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6170</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6171</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6172</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6173</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6174</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6177</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6178</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>6180</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6182</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6186</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6188</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6189</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6190</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6192</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6195</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6196</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70148,5 +73664,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/af_ZA.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/af_ZA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6013">
   <si>
     <t>translation_group</t>
   </si>
@@ -17142,7 +17142,7 @@
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Gebruik Microweber om u webwerf, aanlynwinkel of blog op te stel.</t>
+    <t>Gebruik Microweber om jou webwerf, aanlyn winkel of blog te bou.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17157,13 +17157,13 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Verlate wa's</t>
+    <t>Verlate karretjies</t>
   </si>
   <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>U gebruik hierdie sjabloon.</t>
+    <t>Jy gebruik hierdie sjabloon.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
@@ -17175,13 +17175,13 @@
     <t>Allow multiple templates</t>
   </si>
   <si>
-    <t>Laat verskeie templates toe</t>
+    <t>Laat verskeie sjablone toe</t>
   </si>
   <si>
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>As u veelvuldige sjablone toelaat, kan u verskillende sjablone gebruik wanneer u 'n nuwe bladsy skep.</t>
+    <t>As jy verskeie sjablone toelaat, sal jy verskillende sjablone kan gebruik wanneer jy 'n nuwe bladsy skep.</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
@@ -17193,19 +17193,19 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Lewer boodskappe wat verband hou met nuwe registrasie, wagwoordterugstellings en ander stelselfunksies.</t>
+    <t>Lewer boodskappe af wat verband hou met nuwe registrasie, wagwoordterugstellings en ander stelselfunksies.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>Van e-posadres</t>
+    <t>Van e-pos adres</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>Bv. U webwerfnaam</t>
+    <t>Bv. Jou webwerf naam</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
@@ -17217,25 +17217,25 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Stel u e-posverskaffer op.</t>
+    <t>Stel jou e-posverskaffer op.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Die algemene e-posverskaffer sal alle boodskappe oor die webwerf lewer. Insluitend stelselboodskappe en kontakvormboodskappe.</t>
+    <t>Die algemene e-posverskaffer sal alle boodskappe wat met die webwerf verband hou, aflewer. Insluitend stelselboodskappe en kontakvormboodskappe.</t>
   </si>
   <si>
     <t>Website Logo</t>
   </si>
   <si>
-    <t>Webwerf-logo</t>
+    <t>Webwerf Logo</t>
   </si>
   <si>
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>Kies 'n logo vir u webwerf.</t>
+    <t>Kies 'n logo vir jou webwerf.</t>
   </si>
   <si>
     <t>Upload logo</t>
@@ -17253,52 +17253,55 @@
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Verander standaardtaal ..</t>
+    <t>Verander tans verstektaal..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Vee kas uit.</t>
+    <t>Vee kas uit..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Installeer Multiluuage Module</t>
+    <t>Installeer Multilanguage Module</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Gebruikers kan registreer met tydelike e-posse soos - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>Registreer gebruikers kan outomaties 'n outomatiese e-pos van u ontvang. Sien die instellings en plaas u boodskappe.</t>
+    <t>Registreer gebruikers kan outomaties 'n outomatiese e-pos van jou ontvang. Sien die instellings en plaas jou boodskappe.</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Stuur e-pos oor nuwe gebruikersregistrasie aan admin-gebruikers</t>
+    <t>Stuur e-pos met nuwe gebruikerregistrasie aan admin gebruikers</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Wil u hê dat administrateurs 'n e-pos moet ontvang wanneer 'n nuwe gebruiker geregistreer is?</t>
+    <t>Wil jy hê administrateurs moet 'n e-pos ontvang wanneer nuwe gebruiker geregistreer is?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber is 'n gratis open source-sleep-en-webwerf-bouer en CMS. Dit is onder MIT-lisensie en ons gebruik die Laravel PHP-raamwerk</t>
+    <t>Microweber is gratis oopbron-sleep-en-laat-webwerfbouer en CMS. Dit is onder MIT-lisensie en ons gebruik Laravel PHP-raamwerk</t>
   </si>
   <si>
     <t>A Slider</t>
   </si>
   <si>
-    <t>'N Skuifbalk</t>
+    <t>'n Slider</t>
   </si>
   <si>
     <t>Shipping to address</t>
@@ -17310,7 +17313,7 @@
     <t>Pickup from address</t>
   </si>
   <si>
-    <t>Aflaai vanaf adres</t>
+    <t>Afhaal vanaf adres</t>
   </si>
   <si>
     <t>Global settings</t>
@@ -17328,25 +17331,25 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>U het nie die stelsel-e-pos en smtp opgestel nie.</t>
+    <t>Jy het nie stelsel e-pos en smtp opstelling nie.</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Stel u stelselinstellings hier op.</t>
+    <t>Stel jou stelselinstellings hier op.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>Globale instellings vir kontakvorms</t>
+    <t>Globale kontakvorminstellings</t>
   </si>
   <si>
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>E-posversendingsopsies</t>
+    <t>E-pos stuur opsies</t>
   </si>
   <si>
     <t>Global sender</t>
@@ -17358,37 +17361,37 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Gebruik pasgemaakte stuurinstellings</t>
+    <t>Gebruik pasgemaakte senderinstellings</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>Gebruik aangepaste afsenderinstellings vir die globale kontakvorms.</t>
+    <t>Gebruik pasgemaakte senderinstellings vir die globale kontakvorms.</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Ons sal standaard e-posinstellings van die webwerfstelsel gebruik.</t>
+    <t>By verstek sal ons webwerf-stelsel e-pos instellings gebruik.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>U kan die stelsel-e-posinstellings hier verander.</t>
+    <t>Jy kan die stelsel e-pos instellings hier verander.</t>
   </si>
   <si>
     <t>Global Receivers</t>
   </si>
   <si>
-    <t>Globale ontvangers</t>
+    <t>Globale Ontvangers</t>
   </si>
   <si>
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>Stuur kontakvormsdata na globale ontvangers wanneer dit ingedien word</t>
+    <t>Stuur kontakvormdata aan globale ontvangers wanneer dit ingedien word</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17406,7 +17409,7 @@
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Kontak u gasheerverskaffer om PHP SOAP-uitbreiding in te skakel.</t>
+    <t>Kontak jou gasheerverskaffer om PHP SOAP-uitbreiding te aktiveer.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17448,7 +17451,7 @@
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Produkte V2</t>
+    <t>ProdukteV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17466,9 +17469,15 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Nommer van die sigbare getuigskrifte</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>Module-sjabloon het verander</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
@@ -17481,25 +17490,25 @@
     <t>Default layouts and elements</t>
   </si>
   <si>
-    <t>Standaard uitlegte en elemente</t>
+    <t>Verstek uitlegte en elemente</t>
   </si>
   <si>
     <t>Arrows List</t>
   </si>
   <si>
-    <t>Pylelys</t>
+    <t>Pyltjies lys</t>
   </si>
   <si>
     <t>Checked List</t>
   </si>
   <si>
-    <t>Gelyste lys</t>
+    <t>Gekontroleerde lys</t>
   </si>
   <si>
     <t>Background Text</t>
   </si>
   <si>
-    <t>Agtergrondteks</t>
+    <t>Agtergrond teks</t>
   </si>
   <si>
     <t>Title with Text</t>
@@ -17535,7 +17544,7 @@
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>Teks met beeld en titel</t>
+    <t>Teks met prent en titel</t>
   </si>
   <si>
     <t>Text with Image</t>
@@ -17559,22 +17568,25 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">Stel u captcha-voorkeure op vanaf </t>
+    <t xml:space="preserve">Stel jou captcha-voorkeure op vanaf </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Voeg / wysig velde van die vorm deur gebruik te maak van die pasgemaakte velde</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
-    <t>Huidige instellings vir kontakvorms</t>
+    <t>Huidige kontakvorminstellings</t>
   </si>
   <si>
     <t>Contact form name</t>
   </si>
   <si>
-    <t>Kontakvorm se naam</t>
+    <t>Kontakvorm naam</t>
   </si>
   <si>
     <t>What is the name of this contact form?</t>
@@ -17592,76 +17604,79 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>Stuur kontakvormdata na persoonlike ontvangers wanneer dit ingedien word</t>
+    <t>Stuur kontakvormdata aan pasgemaakte ontvangers wanneer dit ingedien word</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Gebruik pasgemaakte ontvangersinstellings vir die huidige kontakvorm.</t>
+    <t>Gebruik persoonlike ontvangerinstellings vir die huidige kontakvorm.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>Ons sal standaard kontakvorms gebruik vir globale instellings.</t>
+    <t>By verstek sal ons kontakvorm globale instellings gebruik.</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>U kan die globale kontakinstellings hier verander.</t>
+    <t>Jy kan die kontakvorm globale instellings hier verander.</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
   </si>
   <si>
-    <t>Beantwoord outomaties 'n boodskap aan die gebruiker</t>
+    <t>Reageer outomaties boodskap aan gebruiker</t>
   </si>
   <si>
     <t>Enable auto respond message to user</t>
   </si>
   <si>
-    <t>Aktiveer outomatiese reaksie-boodskap aan die gebruiker</t>
+    <t>Aktiveer outomatiese antwoordboodskap aan gebruiker</t>
   </si>
   <si>
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Laat gebruikers toe om 'Dankie-e-posse na intekening' te ontvang.</t>
+    <t>Laat gebruikers toe om "Dankie-e-posse na intekening" te ontvang.</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Onderwerp wat outomaties reageer</t>
+    <t>Auto reageer onderwerp</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
+    <t>Outo-antwoorders laat jou toe om outomatiese antwoorde op inkomende e-pos op te stel</t>
+  </si>
+  <si>
     <t>Auto respond message</t>
   </si>
   <si>
-    <t>Outomatiese reaksie boodskap</t>
+    <t>Outo reageer boodskap</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>E-pos reageer outomaties aan die gebruiker terug</t>
+    <t>Autoreageer e-pos wat aan die gebruiker teruggestuur is</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Outomatiese reaksie op gepaste sender</t>
+    <t>Gepasmaakte sender outomaties reageer</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>Gebruik aangepaste instellings vir die sender vir die huidige kontakvorm.</t>
+    <t>Gebruik pasgemaakte senderinstellings vir die huidige kontakvorm.</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
@@ -17679,25 +17694,25 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Antwoord op e-pos outomaties</t>
+    <t>Antwoord outomaties op e-pos</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>Wanneer die gebruiker die outomatiese reaksie-boodskap ontvang, kan hy terug reageer op die e-pos.</t>
+    <t>Wanneer die gebruiker die outo-antwoord-boodskap ontvang, kan hulle terug antwoord om op e-pos te antwoord.</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Beantwoord e-pos aanhangsels outomaties</t>
+    <t>Auto reageer e-pos aanhangsels</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
-    <t>As u og-beelde wil heg, moet u dit oplaai na die galery vanaf 'Voeg media' by</t>
+    <t>As jy prente wil aanheg, moet jy dit na die gallery oplaai vanaf 'Voeg media by'</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
@@ -17709,13 +17724,13 @@
     <t>Create your first post right now.</t>
   </si>
   <si>
-    <t>Skep nou u eerste pos.</t>
+    <t>Skep nou jou eerste plasing.</t>
   </si>
   <si>
     <t>Create a Post</t>
   </si>
   <si>
-    <t>Skep 'n boodskap</t>
+    <t>Skep 'n plasing</t>
   </si>
   <si>
     <t>templates-new-world</t>
@@ -17729,12 +17744,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Hoe om produkbeskrywings te skryf wat verkoop
-                                                    Een van die beste dinge wat u kan doen om u winkel suksesvol te maak, is om tyd te spandeer in die skryf van uitstekende produkbeskrywings. U wil gedetailleerde, maar bondige inligting verskaf wat potensiële klante sal lok om te koop.
+    <t>Hoe om produkbeskrywings te skryf wat
+                                                    verkoop Een van die beste dinge wat jy kan doen om jou winkel suksesvol te maak, is om tyd te belê in die skryf van wonderlike produkbeskrywings. Jy wil gedetailleerde dog bondige inligting verskaf wat potensiële kliënte sal lok om te koop.
                                                     Dink soos 'n verbruiker
-                                                    Dink aan wat u as verbruiker wil weet, en sluit dan die funksies in u beskrywing in. Vir klere: materiaal en pas. Vir kos: bestanddele en hoe dit voorberei is. Koeëls is u vriende wanneer u
-                                                   -funksies noem - probeer
-                                                            om elkeen tot 5-8 woorde te beperk.</t>
+                                                    Dink na oor wat jy as 'n verbruiker sou wou weet, en sluit dan daardie kenmerke in jou beskrywing in. Vir klere: materiaal en pasvorm. Vir kos: bestanddele en hoe dit voorberei is. Koeëls is jou vriende wanneer jy
+                                                   kenmerke lys – probeer om
+                                                            elkeen tot 5-8 woorde te beperk.</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17743,349 +17758,268 @@
     <t>Admin taal</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Voeg subbladsy by</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Kategorie uitgevee</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Inhoud is uitgevee</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Soek kategorieë</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Skep inhoud</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Kaart</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Enige</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Beperk</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>Wil jy seker uitvee?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Jy het geen produkte in nie</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Terug na</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>kategorieë</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Gepasmaakte velde word gestoor</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Bestaande velde</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Kies uit jou bestaande velde hieronder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Voeg nuwe velde by</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Voeg nuwe pasgemaakte veld vanaf lys hieronder by</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>Jou velde</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Lys van jou bygevoegde pasgemaakte velde</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Stelsel</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Blaaier herlei</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrasie</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Invoer Uitvoer Gereedskap</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Selfstandige Updater</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Voorskou pakket</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Gebruik</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Huidige</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>uit te druk</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Eersteklas</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Klik &amp; Versamel</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Video Agtergrond</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Veeltalige</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Jy kan die Multi-taal module aktiveer om verskeie tale te gebruik</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Meertalige modus</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Aktiveer die multi-taalmodus om verskeie tale vir jou inhoud te hê.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Vertalings word ingevoer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertalings nie in databasis gevind nie. Wil jy vertalings invoer? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Jou mandjie is leeg.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Kode-redakteur</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titels</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titels 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titels 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titels 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titels 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titels 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titels 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titels 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titels 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>teksblok</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Teksblok 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Teksblok 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Teksblok 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Teksblok 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Teksblok 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Teksblok 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Teksblok 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Teksblok 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Teksblok 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Teksblok 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Teksblok 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Teksblok 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Teksblok 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Teksblok 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Teksblok 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>kenmerke</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Kenmerke 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Kenmerke 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Kenmerke 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Kenmerke 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>roosters</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>spyskaart</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Spyskaart - vel-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Spyskaart - vel-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Spyskaart - vel-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Spyskaart - vel-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Spyskaart - vel-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>voetskrif</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Voettekste 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Voettekste 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Voettekste 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Voettekste 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>ander</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>pryse</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Pryse 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Verstek uitlegte</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Geen inhoud hier nie</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>Gepasmaakte velde word gestoor</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Bestaande velde</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Kies uit jou bestaande velde hieronder</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Voeg nuwe velde by</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Voeg 'n nuwe pasgemaakte veld vanaf die lys hieronder by</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>Jou velde</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Lys van jou bygevoegde pasgemaakte velde</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nuwe invoer</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18134,492 +18068,6 @@
   </si>
   <si>
     <t>Herlaai style</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Skakels na</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Voorskou pakket</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Gebruik</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Huidige</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Herrangskik</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Stelsel</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Blaaier herlei</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integrasie</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Selfstandige Updater</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>Jy benodig lisensiesleutel om hierdie pakket te installeer</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Hierdie pakket is premium en jy moet 'n lisensiesleutel hê om dit te installeer</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Jy benodig lisensiesleutel</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Lisensie geaktiveer</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Herlaai bladsy</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Lisensie nie geaktiveer nie</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Stelselopdaterings</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Kyk vir stelselopdaterings</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Terug na lys</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>Die kategorie moet 'n naam hê</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>Is kategorie versteek?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>As jy dit op JA stel, sal hierdie kategorie van die webwerf versteek word</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Noem</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Jou mandjie is leeg.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Resultate gevind</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>As jy die persentasie uit die kiesveld kies, sal dit outomaties bereken word vanaf die prys en aanbodprys van die produk.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Gaan voort na Register</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>resultate)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Bladsytitel - Regs Broodkrummel</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Bladsytitel - Linkerbroodkrummel</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Gebruiksvoorwaardes</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Aflewering en terugsendings</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Gestuur inligting</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Ongeveer 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Ongeveer 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Ongeveer 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Tuis 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>Tuis 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>Jy moet op die pas sjabloonknoppie klik om jou sjabloon te verander</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Soek volgens kriteria</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Dateer vanaf</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Stel die bestellings vanaf datum</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Datum tot</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Stel die bestellings tot op datum</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Bestelbedrag vanaf</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Wys die bestelling met minimum bedrag</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Bestelbedrag te</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Wys die bestelling met maksimum bedrag</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Soek volgens produkte...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Soek volgens produkte</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Betalingstatus</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Gratis soektog per telefoon, naam, e-pos, ens...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Dien hierdie kriteria in</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Stel filter terug</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Voer alles uit</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Kies sortering</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Besteldatum</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nuut &gt; Oud]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Oud &gt; Nuut]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Hoog &gt; Laag]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Laag &gt; Hoog]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>Bestelling voltooi</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>vertalings van die meertalige module is in jou databasis gevind.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Waarskuwing! Die verandering van die verstektaal kan vertalings op jou werf breek.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Wil jy seker voortgaan?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Waarskuwing! Die veranderende verstektaal sal dalk jou werf breek.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Verskepingsinligting</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>Versending tipe</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>die bestelling is nog nie voltooi nie</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>die bestelling is voltooi</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Geskep by</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Opgedateer by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinnige aansig </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Vervang taalwaardes</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Vertalings word ingevoer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertalings nie in databasis gevind nie. Wil jy vertalings invoer? </t>
   </si>
 </sst>
 </file>
@@ -18955,7 +18403,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69668,7 +69116,7 @@
         <v>5749</v>
       </c>
       <c r="D2983" t="s">
-        <v>3838</v>
+        <v>5750</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69682,10 +69130,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5750</v>
+        <v>5751</v>
       </c>
       <c r="D2984" t="s">
-        <v>5751</v>
+        <v>5752</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69699,10 +69147,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="D2985" t="s">
-        <v>5753</v>
+        <v>5754</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69716,10 +69164,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5754</v>
+        <v>5755</v>
       </c>
       <c r="D2986" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69733,10 +69181,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="D2987" t="s">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69750,10 +69198,10 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="D2988" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="E2988" t="s">
         <v>8</v>
@@ -69767,10 +69215,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="D2989" t="s">
-        <v>5761</v>
+        <v>5762</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69784,10 +69232,10 @@
         <v>5</v>
       </c>
       <c r="C2990" t="s">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="D2990" t="s">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="E2990" t="s">
         <v>8</v>
@@ -69801,10 +69249,10 @@
         <v>5</v>
       </c>
       <c r="C2991" t="s">
-        <v>5764</v>
+        <v>5765</v>
       </c>
       <c r="D2991" t="s">
-        <v>5765</v>
+        <v>5766</v>
       </c>
       <c r="E2991" t="s">
         <v>8</v>
@@ -69818,10 +69266,10 @@
         <v>5</v>
       </c>
       <c r="C2992" t="s">
-        <v>5766</v>
+        <v>5767</v>
       </c>
       <c r="D2992" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
       <c r="E2992" t="s">
         <v>8</v>
@@ -69835,10 +69283,10 @@
         <v>5</v>
       </c>
       <c r="C2993" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="D2993" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="E2993" t="s">
         <v>8</v>
@@ -69852,10 +69300,10 @@
         <v>5</v>
       </c>
       <c r="C2994" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="D2994" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
       <c r="E2994" t="s">
         <v>8</v>
@@ -69869,10 +69317,10 @@
         <v>5</v>
       </c>
       <c r="C2995" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="D2995" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="E2995" t="s">
         <v>8</v>
@@ -69886,10 +69334,10 @@
         <v>5</v>
       </c>
       <c r="C2996" t="s">
-        <v>5774</v>
+        <v>5775</v>
       </c>
       <c r="D2996" t="s">
-        <v>5775</v>
+        <v>5776</v>
       </c>
       <c r="E2996" t="s">
         <v>8</v>
@@ -69903,10 +69351,10 @@
         <v>5</v>
       </c>
       <c r="C2997" t="s">
-        <v>5776</v>
+        <v>5777</v>
       </c>
       <c r="D2997" t="s">
-        <v>5777</v>
+        <v>5778</v>
       </c>
       <c r="E2997" t="s">
         <v>8</v>
@@ -69920,10 +69368,10 @@
         <v>5</v>
       </c>
       <c r="C2998" t="s">
-        <v>5778</v>
+        <v>5779</v>
       </c>
       <c r="D2998" t="s">
-        <v>5779</v>
+        <v>5780</v>
       </c>
       <c r="E2998" t="s">
         <v>8</v>
@@ -69937,10 +69385,10 @@
         <v>5</v>
       </c>
       <c r="C2999" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
       <c r="D2999" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="E2999" t="s">
         <v>8</v>
@@ -69954,10 +69402,10 @@
         <v>5</v>
       </c>
       <c r="C3000" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="D3000" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="E3000" t="s">
         <v>8</v>
@@ -69971,10 +69419,10 @@
         <v>5</v>
       </c>
       <c r="C3001" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
       <c r="D3001" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="E3001" t="s">
         <v>8</v>
@@ -69988,10 +69436,10 @@
         <v>5</v>
       </c>
       <c r="C3002" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
       <c r="D3002" t="s">
-        <v>5787</v>
+        <v>5788</v>
       </c>
       <c r="E3002" t="s">
         <v>8</v>
@@ -70005,10 +69453,10 @@
         <v>5</v>
       </c>
       <c r="C3003" t="s">
-        <v>5788</v>
+        <v>5789</v>
       </c>
       <c r="D3003" t="s">
-        <v>5789</v>
+        <v>5790</v>
       </c>
       <c r="E3003" t="s">
         <v>8</v>
@@ -70022,10 +69470,10 @@
         <v>5</v>
       </c>
       <c r="C3004" t="s">
-        <v>5790</v>
+        <v>5791</v>
       </c>
       <c r="D3004" t="s">
-        <v>5791</v>
+        <v>5792</v>
       </c>
       <c r="E3004" t="s">
         <v>8</v>
@@ -70039,10 +69487,10 @@
         <v>5</v>
       </c>
       <c r="C3005" t="s">
-        <v>5792</v>
+        <v>5793</v>
       </c>
       <c r="D3005" t="s">
-        <v>5793</v>
+        <v>5794</v>
       </c>
       <c r="E3005" t="s">
         <v>8</v>
@@ -70056,10 +69504,10 @@
         <v>5</v>
       </c>
       <c r="C3006" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="D3006" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="E3006" t="s">
         <v>8</v>
@@ -70073,10 +69521,10 @@
         <v>5</v>
       </c>
       <c r="C3007" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="D3007" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="E3007" t="s">
         <v>8</v>
@@ -70090,10 +69538,10 @@
         <v>5</v>
       </c>
       <c r="C3008" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D3008" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E3008" t="s">
         <v>8</v>
@@ -70107,10 +69555,10 @@
         <v>5</v>
       </c>
       <c r="C3009" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D3009" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="E3009" t="s">
         <v>8</v>
@@ -70124,10 +69572,10 @@
         <v>5</v>
       </c>
       <c r="C3010" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3010" t="s">
-        <v>5803</v>
+        <v>5804</v>
       </c>
       <c r="E3010" t="s">
         <v>8</v>
@@ -70141,10 +69589,10 @@
         <v>5</v>
       </c>
       <c r="C3011" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="D3011" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="E3011" t="s">
         <v>8</v>
@@ -70158,10 +69606,10 @@
         <v>5</v>
       </c>
       <c r="C3012" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="D3012" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70175,10 +69623,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="D3013" t="s">
-        <v>5807</v>
+        <v>5808</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70192,10 +69640,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5808</v>
+        <v>5809</v>
       </c>
       <c r="D3014" t="s">
-        <v>5809</v>
+        <v>5810</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70209,10 +69657,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="D3015" t="s">
-        <v>5811</v>
+        <v>5812</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70226,10 +69674,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5812</v>
+        <v>5813</v>
       </c>
       <c r="D3016" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70243,10 +69691,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="D3017" t="s">
-        <v>3318</v>
+        <v>5816</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70260,10 +69708,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5815</v>
+        <v>5817</v>
       </c>
       <c r="D3018" t="s">
-        <v>2891</v>
+        <v>5818</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70277,10 +69725,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5816</v>
+        <v>5819</v>
       </c>
       <c r="D3019" t="s">
-        <v>5817</v>
+        <v>5820</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70294,7 +69742,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5818</v>
+        <v>5821</v>
       </c>
       <c r="D3020" t="s">
         <v>1564</v>
@@ -70311,10 +69759,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5819</v>
+        <v>5822</v>
       </c>
       <c r="D3021" t="s">
-        <v>5820</v>
+        <v>5823</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70328,10 +69776,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5821</v>
+        <v>5824</v>
       </c>
       <c r="D3022" t="s">
-        <v>5822</v>
+        <v>5825</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70345,10 +69793,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5823</v>
+        <v>5826</v>
       </c>
       <c r="D3023" t="s">
-        <v>5824</v>
+        <v>5827</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70362,10 +69810,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5825</v>
+        <v>5828</v>
       </c>
       <c r="D3024" t="s">
-        <v>5826</v>
+        <v>5829</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70379,10 +69827,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5827</v>
+        <v>5830</v>
       </c>
       <c r="D3025" t="s">
-        <v>5828</v>
+        <v>5831</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70396,10 +69844,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5829</v>
+        <v>5832</v>
       </c>
       <c r="D3026" t="s">
-        <v>5830</v>
+        <v>5833</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70413,10 +69861,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5831</v>
+        <v>5834</v>
       </c>
       <c r="D3027" t="s">
-        <v>5832</v>
+        <v>5835</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70430,10 +69878,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5833</v>
+        <v>5836</v>
       </c>
       <c r="D3028" t="s">
-        <v>5834</v>
+        <v>5837</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70447,10 +69895,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5835</v>
+        <v>5838</v>
       </c>
       <c r="D3029" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70464,10 +69912,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
       <c r="D3030" t="s">
-        <v>5838</v>
+        <v>5841</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70481,10 +69929,10 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5839</v>
+        <v>5842</v>
       </c>
       <c r="D3031" t="s">
-        <v>5840</v>
+        <v>5843</v>
       </c>
       <c r="E3031" t="s">
         <v>8</v>
@@ -70498,10 +69946,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5841</v>
+        <v>5844</v>
       </c>
       <c r="D3032" t="s">
-        <v>5842</v>
+        <v>5845</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70515,10 +69963,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5843</v>
+        <v>5846</v>
       </c>
       <c r="D3033" t="s">
-        <v>5844</v>
+        <v>5847</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70532,10 +69980,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5845</v>
+        <v>5848</v>
       </c>
       <c r="D3034" t="s">
-        <v>5846</v>
+        <v>5849</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70549,10 +69997,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5847</v>
+        <v>5850</v>
       </c>
       <c r="D3035" t="s">
-        <v>4941</v>
+        <v>5851</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70566,10 +70014,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5848</v>
+        <v>5852</v>
       </c>
       <c r="D3036" t="s">
-        <v>5849</v>
+        <v>5853</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70583,10 +70031,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5850</v>
+        <v>5854</v>
       </c>
       <c r="D3037" t="s">
-        <v>5851</v>
+        <v>5855</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70600,10 +70048,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5852</v>
+        <v>5856</v>
       </c>
       <c r="D3038" t="s">
-        <v>5853</v>
+        <v>5857</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70617,10 +70065,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5854</v>
+        <v>5858</v>
       </c>
       <c r="D3039" t="s">
-        <v>5855</v>
+        <v>5859</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70634,10 +70082,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5856</v>
+        <v>5860</v>
       </c>
       <c r="D3040" t="s">
-        <v>5857</v>
+        <v>5861</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70651,10 +70099,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5858</v>
+        <v>5862</v>
       </c>
       <c r="D3041" t="s">
-        <v>5859</v>
+        <v>5863</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70668,10 +70116,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5860</v>
+        <v>5864</v>
       </c>
       <c r="D3042" t="s">
-        <v>5861</v>
+        <v>5865</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70685,10 +70133,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5862</v>
+        <v>5866</v>
       </c>
       <c r="D3043" t="s">
-        <v>5863</v>
+        <v>5867</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70702,10 +70150,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5864</v>
+        <v>5868</v>
       </c>
       <c r="D3044" t="s">
-        <v>5865</v>
+        <v>5869</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70719,10 +70167,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5866</v>
+        <v>5870</v>
       </c>
       <c r="D3045" t="s">
-        <v>5867</v>
+        <v>5871</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70736,10 +70184,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5868</v>
+        <v>5872</v>
       </c>
       <c r="D3046" t="s">
-        <v>5869</v>
+        <v>5873</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70753,10 +70201,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5870</v>
+        <v>5874</v>
       </c>
       <c r="D3047" t="s">
-        <v>5871</v>
+        <v>5875</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70770,10 +70218,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5872</v>
+        <v>5876</v>
       </c>
       <c r="D3048" t="s">
-        <v>3122</v>
+        <v>5877</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70787,10 +70235,10 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5873</v>
+        <v>5878</v>
       </c>
       <c r="D3049" t="s">
-        <v>5874</v>
+        <v>5879</v>
       </c>
       <c r="E3049" t="s">
         <v>8</v>
@@ -70804,10 +70252,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5875</v>
+        <v>5880</v>
       </c>
       <c r="D3050" t="s">
-        <v>5876</v>
+        <v>5881</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70821,10 +70269,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5877</v>
+        <v>5882</v>
       </c>
       <c r="D3051" t="s">
-        <v>5878</v>
+        <v>5883</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70838,10 +70286,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5879</v>
+        <v>5884</v>
       </c>
       <c r="D3052" t="s">
-        <v>5880</v>
+        <v>5885</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70855,10 +70303,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5881</v>
+        <v>5886</v>
       </c>
       <c r="D3053" t="s">
-        <v>5882</v>
+        <v>5887</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70872,10 +70320,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5883</v>
+        <v>5888</v>
       </c>
       <c r="D3054" t="s">
-        <v>5884</v>
+        <v>5889</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70889,10 +70337,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5885</v>
+        <v>5890</v>
       </c>
       <c r="D3055" t="s">
-        <v>5886</v>
+        <v>5891</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70906,10 +70354,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5887</v>
+        <v>5892</v>
       </c>
       <c r="D3056" t="s">
-        <v>5888</v>
+        <v>5893</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70923,10 +70371,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5889</v>
+        <v>5894</v>
       </c>
       <c r="D3057" t="s">
-        <v>5890</v>
+        <v>5895</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70940,10 +70388,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5891</v>
+        <v>5896</v>
       </c>
       <c r="D3058" t="s">
-        <v>5892</v>
+        <v>5897</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70957,10 +70405,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5893</v>
+        <v>5898</v>
       </c>
       <c r="D3059" t="s">
-        <v>5894</v>
+        <v>5899</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70974,10 +70422,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5895</v>
+        <v>5900</v>
       </c>
       <c r="D3060" t="s">
-        <v>5896</v>
+        <v>5901</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70991,10 +70439,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5897</v>
+        <v>5902</v>
       </c>
       <c r="D3061" t="s">
-        <v>5898</v>
+        <v>5903</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -71005,13 +70453,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5899</v>
+        <v>5904</v>
       </c>
       <c r="C3062" t="s">
-        <v>5900</v>
+        <v>5905</v>
       </c>
       <c r="D3062" t="s">
-        <v>5901</v>
+        <v>5906</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -71025,10 +70473,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5902</v>
+        <v>5907</v>
       </c>
       <c r="D3063" t="s">
-        <v>5903</v>
+        <v>5908</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71042,10 +70490,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5904</v>
+        <v>5909</v>
       </c>
       <c r="D3064" t="s">
-        <v>5905</v>
+        <v>4249</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71059,10 +70507,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5906</v>
+        <v>5910</v>
       </c>
       <c r="D3065" t="s">
-        <v>5907</v>
+        <v>5911</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71076,10 +70524,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5908</v>
+        <v>5912</v>
       </c>
       <c r="D3066" t="s">
-        <v>5908</v>
+        <v>5913</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71093,10 +70541,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5909</v>
+        <v>5914</v>
       </c>
       <c r="D3067" t="s">
-        <v>5910</v>
+        <v>5915</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71110,10 +70558,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5911</v>
+        <v>5916</v>
       </c>
       <c r="D3068" t="s">
-        <v>5912</v>
+        <v>5917</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71127,10 +70575,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5913</v>
+        <v>5918</v>
       </c>
       <c r="D3069" t="s">
-        <v>5914</v>
+        <v>5919</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71144,10 +70592,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5915</v>
+        <v>5920</v>
       </c>
       <c r="D3070" t="s">
-        <v>5916</v>
+        <v>5921</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71161,10 +70609,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5917</v>
+        <v>5922</v>
       </c>
       <c r="D3071" t="s">
-        <v>5918</v>
+        <v>5923</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71178,10 +70626,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5919</v>
+        <v>5924</v>
       </c>
       <c r="D3072" t="s">
-        <v>5920</v>
+        <v>5924</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71195,10 +70643,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5921</v>
+        <v>5925</v>
       </c>
       <c r="D3073" t="s">
-        <v>5922</v>
+        <v>5925</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71212,10 +70660,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5923</v>
+        <v>5926</v>
       </c>
       <c r="D3074" t="s">
-        <v>5924</v>
+        <v>5927</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71229,10 +70677,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5925</v>
+        <v>5928</v>
       </c>
       <c r="D3075" t="s">
-        <v>5926</v>
+        <v>5929</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71246,10 +70694,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5927</v>
+        <v>5930</v>
       </c>
       <c r="D3076" t="s">
-        <v>5928</v>
+        <v>5931</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71263,10 +70711,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5929</v>
+        <v>5932</v>
       </c>
       <c r="D3077" t="s">
-        <v>5930</v>
+        <v>5933</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71280,10 +70728,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5931</v>
+        <v>5934</v>
       </c>
       <c r="D3078" t="s">
-        <v>5932</v>
+        <v>5935</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71297,10 +70745,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5933</v>
+        <v>5936</v>
       </c>
       <c r="D3079" t="s">
-        <v>5934</v>
+        <v>5937</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71314,10 +70762,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5935</v>
+        <v>5938</v>
       </c>
       <c r="D3080" t="s">
-        <v>5936</v>
+        <v>5939</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71331,10 +70779,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5937</v>
+        <v>5940</v>
       </c>
       <c r="D3081" t="s">
-        <v>5938</v>
+        <v>5941</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71348,10 +70796,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5939</v>
+        <v>5942</v>
       </c>
       <c r="D3082" t="s">
-        <v>5940</v>
+        <v>5943</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71365,10 +70813,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5941</v>
+        <v>5944</v>
       </c>
       <c r="D3083" t="s">
-        <v>5942</v>
+        <v>5945</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71382,10 +70830,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5943</v>
+        <v>5946</v>
       </c>
       <c r="D3084" t="s">
-        <v>5944</v>
+        <v>5947</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71399,10 +70847,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5945</v>
+        <v>5948</v>
       </c>
       <c r="D3085" t="s">
-        <v>5946</v>
+        <v>5949</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71416,10 +70864,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5947</v>
+        <v>5950</v>
       </c>
       <c r="D3086" t="s">
-        <v>5948</v>
+        <v>3643</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71433,10 +70881,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5949</v>
+        <v>5951</v>
       </c>
       <c r="D3087" t="s">
-        <v>5950</v>
+        <v>5952</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71450,10 +70898,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5951</v>
+        <v>5953</v>
       </c>
       <c r="D3088" t="s">
-        <v>5952</v>
+        <v>5953</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71467,10 +70915,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5953</v>
+        <v>5954</v>
       </c>
       <c r="D3089" t="s">
-        <v>5954</v>
+        <v>5955</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71484,10 +70932,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5955</v>
+        <v>5956</v>
       </c>
       <c r="D3090" t="s">
-        <v>5956</v>
+        <v>5957</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71501,10 +70949,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5957</v>
+        <v>5958</v>
       </c>
       <c r="D3091" t="s">
-        <v>5958</v>
+        <v>5959</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71518,10 +70966,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5959</v>
+        <v>5960</v>
       </c>
       <c r="D3092" t="s">
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71535,10 +70983,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5961</v>
+        <v>5962</v>
       </c>
       <c r="D3093" t="s">
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71552,7 +71000,7 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5963</v>
+        <v>5964</v>
       </c>
       <c r="D3094" t="s">
         <v>5964</v>
@@ -71806,11 +71254,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5993</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5994</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71823,11 +71271,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5994</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71844,7 +71292,7 @@
         <v>5995</v>
       </c>
       <c r="D3111" t="s">
-        <v>5995</v>
+        <v>5996</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71858,10 +71306,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5996</v>
+        <v>5997</v>
       </c>
       <c r="D3112" t="s">
-        <v>5996</v>
+        <v>5998</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71875,10 +71323,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5997</v>
+        <v>5999</v>
       </c>
       <c r="D3113" t="s">
-        <v>5998</v>
+        <v>6000</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71892,10 +71340,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5999</v>
+        <v>6001</v>
       </c>
       <c r="D3114" t="s">
-        <v>6000</v>
+        <v>6002</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71909,10 +71357,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>6001</v>
+        <v>6003</v>
       </c>
       <c r="D3115" t="s">
-        <v>6002</v>
+        <v>6004</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71926,10 +71374,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>6003</v>
+        <v>6005</v>
       </c>
       <c r="D3116" t="s">
-        <v>6004</v>
+        <v>6006</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71943,10 +71391,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>6005</v>
+        <v>6007</v>
       </c>
       <c r="D3117" t="s">
-        <v>6006</v>
+        <v>6008</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71960,10 +71408,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>6007</v>
+        <v>6009</v>
       </c>
       <c r="D3118" t="s">
-        <v>6008</v>
+        <v>6010</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71977,1678 +71425,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>6009</v>
+        <v>6011</v>
       </c>
       <c r="D3119" t="s">
-        <v>6010</v>
+        <v>6012</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2715</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6079</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5899</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6089</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6089</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>2727</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>3787</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6117</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6118</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6119</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6120</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6121</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6122</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6123</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6124</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1807</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6172</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6174</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6175</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6176</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6187</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6188</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6189</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6190</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6191</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6192</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6193</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6194</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6195</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6196</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
